--- a/with logs for unschedule with saturday sunday/excel_schedules/room_151_genetic_schedule.xlsx
+++ b/with logs for unschedule with saturday sunday/excel_schedules/room_151_genetic_schedule.xlsx
@@ -623,7 +623,35 @@
           <t>3:30 PM - 4:00 PM</t>
         </is>
       </c>
-      <c r="B17" s="2" t="inlineStr">
+    </row>
+    <row r="18" ht="50" customHeight="1">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>4:00 PM - 4:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="50" customHeight="1">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>4:30 PM - 5:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="50" customHeight="1">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>5:00 PM - 5:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="50" customHeight="1">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>5:30 PM - 6:00 PM</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
         <is>
           <t>AC 307 - Accounting
 2C
@@ -631,42 +659,13 @@
         </is>
       </c>
     </row>
-    <row r="18" ht="50" customHeight="1">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>4:00 PM - 4:30 PM</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="n"/>
-    </row>
-    <row r="19" ht="50" customHeight="1">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>4:30 PM - 5:00 PM</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="n"/>
-    </row>
-    <row r="20" ht="50" customHeight="1">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>5:00 PM - 5:30 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="21" ht="50" customHeight="1">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>5:30 PM - 6:00 PM</t>
-        </is>
-      </c>
-    </row>
     <row r="22" ht="50" customHeight="1">
       <c r="A22" s="2" t="inlineStr">
         <is>
           <t>6:00 PM - 6:30 PM</t>
         </is>
       </c>
+      <c r="B22" s="2" t="n"/>
     </row>
     <row r="23" ht="50" customHeight="1">
       <c r="A23" s="2" t="inlineStr">
@@ -674,6 +673,7 @@
           <t>6:30 PM - 7:00 PM</t>
         </is>
       </c>
+      <c r="B23" s="2" t="n"/>
     </row>
     <row r="24" ht="50" customHeight="1">
       <c r="A24" s="2" t="inlineStr">
@@ -705,7 +705,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B21:B23"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
